--- a/チェックリスト/仕様書/追加する演出、仕様.xlsx
+++ b/チェックリスト/仕様書/追加する演出、仕様.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29AC4AF-4BA6-4134-B994-4ABDFD392875}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE0FEC-FB78-4075-BEDD-E0FF1CBD10A1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>射影機の撮影演出</t>
     <rPh sb="0" eb="2">
@@ -440,22 +440,6 @@
       <t>フ</t>
     </rPh>
     <rPh sb="28" eb="29">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同時に博士の顔も飛ばす</t>
-    <rPh sb="0" eb="2">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハカセ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
       <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1611,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U143"/>
+  <dimension ref="A1:U142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1641,7 +1625,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="U13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1686,7 +1670,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1732,12 +1716,12 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -1958,11 +1942,6 @@
     <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
